--- a/KM5c_data/ODP_Site_1087.xlsx
+++ b/KM5c_data/ODP_Site_1087.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>17.3431432</v>
+        <v>16.93</v>
       </c>
       <c r="Q2">
-        <v>3.09986486</v>
+        <v>3.513918789302302</v>
       </c>
       <c r="R2">
-        <v>2.23655003</v>
+        <v>2.650603959302302</v>
       </c>
       <c r="S2">
         <v>2.049068666060609</v>
